--- a/Campos.xlsx
+++ b/Campos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3B73A4-62E6-42C3-AF0F-503983FCBF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F2567F-0E38-4953-A924-81E733B24B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F4DCA78F-EF0E-4629-9DF3-FC924CA21C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4DCA78F-EF0E-4629-9DF3-FC924CA21C52}"/>
   </bookViews>
   <sheets>
     <sheet name="campos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="46">
   <si>
     <t>Nombre de Campo</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>agendamiento</t>
+  </si>
+  <si>
+    <t>¿Agregar una sección?</t>
+  </si>
+  <si>
+    <t>Nombre de la sección</t>
+  </si>
+  <si>
+    <t>Nombre seccion</t>
   </si>
 </sst>
 </file>
@@ -217,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,11 +249,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -277,16 +299,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261C60A7-773C-46E5-A469-750CBFE2E617}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,9 +659,11 @@
     <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="69.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -688,8 +721,14 @@
       <c r="S1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -744,13 +783,15 @@
       <c r="R2" s="7">
         <v>1</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="12">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>34</v>
@@ -764,7 +805,9 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
@@ -780,7 +823,9 @@
       <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M3" s="5" t="s">
         <v>16</v>
       </c>
@@ -796,71 +841,83 @@
       <c r="Q3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="12">
+        <v>500</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7">
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="16">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>34</v>
@@ -874,7 +931,9 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
@@ -890,7 +949,9 @@
       <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>16</v>
       </c>
@@ -906,10 +967,16 @@
       <c r="Q5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12">
+        <v>500</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -964,63 +1031,266 @@
       <c r="R6" s="7">
         <v>1</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="12">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>31</v>
+      <c r="T6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="11"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12">
+        <v>500</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1</v>
+      </c>
+      <c r="S8" s="12">
+        <v>500</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="12">
+        <v>500</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1</v>
+      </c>
+      <c r="S10" s="12">
+        <v>500</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1178,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51624015-0912-4B01-898F-133A3425A209}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,70 +1459,79 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="5">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="7">
-        <v>1</v>
-      </c>
-      <c r="S1" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>34</v>
@@ -1266,7 +1545,9 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1282,7 +1563,9 @@
       <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1298,12 +1581,18 @@
       <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="R2" s="7">
+        <v>1</v>
+      </c>
+      <c r="S2" s="7">
+        <v>500</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>34</v>
@@ -1351,10 +1640,12 @@
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>34</v>
@@ -1368,9 +1659,7 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1386,9 +1675,7 @@
       <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="L4" s="10"/>
       <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1404,16 +1691,14 @@
       <c r="Q4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>34</v>
@@ -1469,10 +1754,12 @@
       <c r="S5" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>34</v>
@@ -1528,10 +1815,12 @@
       <c r="S6" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>34</v>
@@ -1587,10 +1876,12 @@
       <c r="S7" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>34</v>
@@ -1646,10 +1937,12 @@
       <c r="S8" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>34</v>
@@ -1663,7 +1956,9 @@
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1679,7 +1974,9 @@
       <c r="K9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1695,12 +1992,18 @@
       <c r="Q9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>500</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>34</v>
@@ -1748,10 +2051,12 @@
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>34</v>
@@ -1765,9 +2070,7 @@
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1783,9 +2086,7 @@
       <c r="K11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11" s="10"/>
       <c r="M11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1801,16 +2102,14 @@
       <c r="Q11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="7">
-        <v>1</v>
-      </c>
-      <c r="S11" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>34</v>
@@ -1866,10 +2165,12 @@
       <c r="S12" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>34</v>
@@ -1925,6 +2226,139 @@
       <c r="S13" s="7">
         <v>500</v>
       </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1</v>
+      </c>
+      <c r="S14" s="7">
+        <v>500</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>500</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="14:16" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Campos.xlsx
+++ b/Campos.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fad76e92ff39390/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F2567F-0E38-4953-A924-81E733B24B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EE6EC471-DE6E-4482-9536-A35D0EF8E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299A77C8-264A-4A31-B02D-7EF99E2D496D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4DCA78F-EF0E-4629-9DF3-FC924CA21C52}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{F4DCA78F-EF0E-4629-9DF3-FC924CA21C52}"/>
   </bookViews>
   <sheets>
-    <sheet name="campos" sheetId="1" r:id="rId1"/>
-    <sheet name="usuarios" sheetId="2" r:id="rId2"/>
-    <sheet name="opciones" sheetId="3" r:id="rId3"/>
-    <sheet name="Plantilla" sheetId="4" r:id="rId4"/>
+    <sheet name="config" sheetId="5" r:id="rId1"/>
+    <sheet name="campos" sheetId="1" r:id="rId2"/>
+    <sheet name="usuarios" sheetId="2" r:id="rId3"/>
+    <sheet name="opciones" sheetId="3" r:id="rId4"/>
+    <sheet name="Plantilla" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="65">
   <si>
     <t>Nombre de Campo</t>
   </si>
@@ -63,9 +64,6 @@
     <t>¿El campo es precargable?</t>
   </si>
   <si>
-    <t>¿El campo tiene un valor por defecto?</t>
-  </si>
-  <si>
     <t>¿El campo pertenece a una bandeja?</t>
   </si>
   <si>
@@ -166,13 +164,77 @@
   </si>
   <si>
     <t>Nombre seccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ¿El campo es                                               calculado?(Si es                                     numerico,                                                           moneda)
+¿El campo tiene 
+un valor por defecto?</t>
+  </si>
+  <si>
+    <t>¿El campo es calculado?(Si es numerico,moneda)
+¿El campo tiene 
+un valor por defecto?</t>
+  </si>
+  <si>
+    <t>Campaña</t>
+  </si>
+  <si>
+    <t>Nombre del Grupo</t>
+  </si>
+  <si>
+    <t>Descripcion del Grupo</t>
+  </si>
+  <si>
+    <t>Nombre de la hoja que contienen los usuarios del grupo</t>
+  </si>
+  <si>
+    <t>Celda en la que inica</t>
+  </si>
+  <si>
+    <t>Celda en la que finalisa</t>
+  </si>
+  <si>
+    <t>Nombre del Formulario</t>
+  </si>
+  <si>
+    <t>Tipo del Formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles que descarga gestion general </t>
+  </si>
+  <si>
+    <t>¿Desea mostrar Tiempo de tipificaion?</t>
+  </si>
+  <si>
+    <t>¿Bloquear formulario al gestionarse?</t>
+  </si>
+  <si>
+    <t>APRENDIZ SENA COS</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Formulario</t>
+  </si>
+  <si>
+    <t>Inbound y Outbound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +267,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -226,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -249,18 +320,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -299,25 +391,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,11 +725,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D017A3EA-2CE7-4521-95DC-22F683AC1DC2}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261C60A7-773C-46E5-A469-750CBFE2E617}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8:U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +842,7 @@
     <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="19.140625" style="2" customWidth="1"/>
@@ -663,7 +854,7 @@
     <col min="21" max="21" width="11.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="93" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -697,600 +888,275 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="T1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="7">
         <v>1</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="7">
         <v>500</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L3" s="10"/>
       <c r="M3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="7">
-        <v>1</v>
-      </c>
-      <c r="S3" s="12">
-        <v>500</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="15">
-        <v>1</v>
-      </c>
-      <c r="S4" s="16">
-        <v>500</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5" s="12">
-        <v>500</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="7">
-        <v>1</v>
-      </c>
-      <c r="S6" s="12">
-        <v>500</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="7">
-        <v>1</v>
-      </c>
-      <c r="S7" s="12">
-        <v>500</v>
-      </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="7">
-        <v>1</v>
-      </c>
-      <c r="S8" s="12">
-        <v>500</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="7">
-        <v>1</v>
-      </c>
-      <c r="S9" s="12">
-        <v>500</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="7">
-        <v>1</v>
-      </c>
-      <c r="S10" s="12">
-        <v>500</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="5"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1298,19 +1164,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8069DB8F-F818-4ADE-BC42-7A9DAEC44BF4}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B38" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1320,6 +1186,11 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1000228140</v>
       </c>
     </row>
@@ -1328,12 +1199,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B16FC97-C1EE-4B43-90DA-2CB5F5B121B3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,101 +1214,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1446,17 +1317,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51624015-0912-4B01-898F-133A3425A209}">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="37.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
@@ -1464,7 +1349,7 @@
     <col min="20" max="20" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="139.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1498,88 +1383,88 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="T1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="7">
         <v>1</v>
@@ -1592,51 +1477,51 @@
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -1645,51 +1530,51 @@
     </row>
     <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -1698,55 +1583,55 @@
     </row>
     <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R5" s="7">
         <v>1</v>
@@ -1759,55 +1644,55 @@
     </row>
     <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R6" s="7">
         <v>1</v>
@@ -1820,55 +1705,55 @@
     </row>
     <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R7" s="7">
         <v>1</v>
@@ -1881,55 +1766,55 @@
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R8" s="7">
         <v>1</v>
@@ -1942,55 +1827,53 @@
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R9" s="7">
         <v>1</v>
@@ -2003,51 +1886,51 @@
     </row>
     <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2056,51 +1939,51 @@
     </row>
     <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -2109,55 +1992,55 @@
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R12" s="7">
         <v>1</v>
@@ -2170,55 +2053,53 @@
     </row>
     <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R13" s="7">
         <v>1</v>
@@ -2231,55 +2112,53 @@
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R14" s="7">
         <v>1</v>
@@ -2292,55 +2171,55 @@
     </row>
     <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R15" s="7">
         <v>1</v>
@@ -2349,16 +2228,15 @@
         <v>500</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="14:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="14:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Campos.xlsx
+++ b/Campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fad76e92ff39390/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EE6EC471-DE6E-4482-9536-A35D0EF8E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299A77C8-264A-4A31-B02D-7EF99E2D496D}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{EE6EC471-DE6E-4482-9536-A35D0EF8E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979531C0-C9CF-45B6-9196-9B91470FC9C8}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{F4DCA78F-EF0E-4629-9DF3-FC924CA21C52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F4DCA78F-EF0E-4629-9DF3-FC924CA21C52}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="68">
   <si>
     <t>Nombre de Campo</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>Roles que editan  el campo</t>
-  </si>
-  <si>
-    <t>Caracteres minimos</t>
-  </si>
-  <si>
-    <t>Caracteres maximos</t>
   </si>
   <si>
     <t>Usuarios</t>
@@ -182,30 +176,12 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
-    <t>Descripcion del Grupo</t>
-  </si>
-  <si>
-    <t>Nombre de la hoja que contienen los usuarios del grupo</t>
-  </si>
-  <si>
-    <t>Celda en la que inica</t>
-  </si>
-  <si>
-    <t>Celda en la que finalisa</t>
-  </si>
-  <si>
     <t>Nombre del Formulario</t>
   </si>
   <si>
     <t>Tipo del Formulario</t>
   </si>
   <si>
-    <t xml:space="preserve">Roles que descarga gestion general </t>
-  </si>
-  <si>
-    <t>¿Desea mostrar Tiempo de tipificaion?</t>
-  </si>
-  <si>
     <t>¿Bloquear formulario al gestionarse?</t>
   </si>
   <si>
@@ -228,6 +204,39 @@
   </si>
   <si>
     <t>Inbound y Outbound</t>
+  </si>
+  <si>
+    <t>Nombre Campo,Filtrar por Radicado</t>
+  </si>
+  <si>
+    <t>Descripción del Grupo</t>
+  </si>
+  <si>
+    <t>Nombre de la hoja que contiene los usuarios del grupo</t>
+  </si>
+  <si>
+    <t>Celda en la que inicia</t>
+  </si>
+  <si>
+    <t>Celda en la que finaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles que descarga gestión general </t>
+  </si>
+  <si>
+    <t>¿Desea mostrar Tiempo de tipificación?</t>
+  </si>
+  <si>
+    <t>Campos que seran indentificador unico del formulario</t>
+  </si>
+  <si>
+    <t>Campos que seran filtros del formulario</t>
+  </si>
+  <si>
+    <t>Carácteres mínimos</t>
+  </si>
+  <si>
+    <t>Carácteres máximos</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,6 +420,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,135 +741,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D017A3EA-2CE7-4521-95DC-22F683AC1DC2}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="H2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="I2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>15</v>
+      <c r="M2" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261C60A7-773C-46E5-A469-750CBFE2E617}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="35.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="96" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -889,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
@@ -907,24 +937,24 @@
         <v>17</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -966,10 +996,10 @@
         <v>14</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R2" s="7">
         <v>1</v>
@@ -980,183 +1010,24 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1172,24 +1043,24 @@
       <selection activeCell="B38" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1000228140</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>100000000</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1000228140</v>
       </c>
@@ -1207,108 +1078,108 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1321,35 +1192,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51624015-0912-4B01-898F-133A3425A209}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="37.88671875" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="139.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1384,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
@@ -1402,24 +1273,24 @@
         <v>17</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -1461,10 +1332,10 @@
         <v>14</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R2" s="7">
         <v>1</v>
@@ -1475,12 +1346,12 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1518,22 +1389,22 @@
         <v>14</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1571,23 +1442,23 @@
         <v>14</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
@@ -1628,10 +1499,10 @@
         <v>14</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R5" s="7">
         <v>1</v>
@@ -1642,12 +1513,12 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
     </row>
-    <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1689,10 +1560,10 @@
         <v>14</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R6" s="7">
         <v>1</v>
@@ -1703,12 +1574,12 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1750,10 +1621,10 @@
         <v>14</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R7" s="7">
         <v>1</v>
@@ -1764,12 +1635,12 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1811,10 +1682,10 @@
         <v>14</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R8" s="7">
         <v>1</v>
@@ -1825,12 +1696,12 @@
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1870,10 +1741,10 @@
         <v>14</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R9" s="7">
         <v>1</v>
@@ -1884,12 +1755,12 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1927,22 +1798,22 @@
         <v>14</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1980,22 +1851,22 @@
         <v>14</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2037,10 +1908,10 @@
         <v>14</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R12" s="7">
         <v>1</v>
@@ -2051,12 +1922,12 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2096,10 +1967,10 @@
         <v>14</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R13" s="7">
         <v>1</v>
@@ -2110,12 +1981,12 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2155,10 +2026,10 @@
         <v>14</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R14" s="7">
         <v>1</v>
@@ -2169,12 +2040,12 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2216,10 +2087,10 @@
         <v>14</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R15" s="7">
         <v>1</v>
@@ -2231,10 +2102,10 @@
         <v>14</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="14:15" ht="23.25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="14:15" ht="24" x14ac:dyDescent="0.3">
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>

--- a/Campos.xlsx
+++ b/Campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fad76e92ff39390/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fad76e92ff39390/AUTOMATIZACIÓN-CRM2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{EE6EC471-DE6E-4482-9536-A35D0EF8E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96972480-B79A-4C49-BE86-92F3543906D7}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{EE6EC471-DE6E-4482-9536-A35D0EF8E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F6777E-A9AD-4739-84A4-7FA17862F368}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{F4DCA78F-EF0E-4629-9DF3-FC924CA21C52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F4DCA78F-EF0E-4629-9DF3-FC924CA21C52}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="76">
   <si>
     <t>Nombre de Campo</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Inbound y Outbound</t>
   </si>
   <si>
-    <t>Nombre Campo,Filtrar por Radicado</t>
-  </si>
-  <si>
     <t>Descripción del Grupo</t>
   </si>
   <si>
@@ -249,13 +246,28 @@
   </si>
   <si>
     <t>Outbound</t>
+  </si>
+  <si>
+    <t>Llave</t>
+  </si>
+  <si>
+    <t>Llave,Filtrar por Radicado</t>
+  </si>
+  <si>
+    <t>opción 4</t>
+  </si>
+  <si>
+    <t>opción 5</t>
+  </si>
+  <si>
+    <t>opción 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,14 +288,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,10 +413,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -424,21 +428,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,31 +746,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D017A3EA-2CE7-4521-95DC-22F683AC1DC2}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -787,16 +778,16 @@
         <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>47</v>
@@ -805,23 +796,23 @@
         <v>48</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -849,59 +840,41 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="N3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="N4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{CECD94B0-E968-4BC7-A897-C128771F5A67}">
-      <formula1>$O$2:$O$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{E1E025E8-E4F4-4E0B-A781-0ECD88F0770B}">
-      <formula1>$N$2:$N$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE8CBEB1-FBD6-4CF1-AC6B-967CAE5FDD58}">
           <x14:formula1>
             <xm:f>Plantilla!$W$2:$W$3</xm:f>
           </x14:formula1>
           <xm:sqref>J2:K2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1E025E8-E4F4-4E0B-A781-0ECD88F0770B}">
+          <x14:formula1>
+            <xm:f>Plantilla!$Y$2:$Y$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DD6946B-E03A-4515-8C00-13EED3F67883}">
+          <x14:formula1>
+            <xm:f>Plantilla!$X$2:$X$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -912,38 +885,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261C60A7-773C-46E5-A469-750CBFE2E617}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="15" customWidth="1"/>
     <col min="2" max="2" width="14" style="15" customWidth="1"/>
     <col min="3" max="3" width="13" style="15" customWidth="1"/>
     <col min="4" max="4" width="16" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="35.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="17" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="17" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" style="15" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" style="16" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="96" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -996,10 +970,10 @@
         <v>17</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>40</v>
@@ -1008,7 +982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1068,13 +1042,16 @@
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
-      <c r="V2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>31</v>
@@ -1088,7 +1065,9 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1130,13 +1109,16 @@
       </c>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>31</v>
@@ -1148,9 +1130,11 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1150,9 @@
       <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1182,14 +1168,21 @@
       <c r="Q4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5">
+        <v>500</v>
+      </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>31</v>
@@ -1201,9 +1194,11 @@
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1245,37 +1240,4551 @@
       </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="V5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5">
+        <v>500</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>500</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5">
+        <v>500</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>500</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>500</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>500</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>500</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5">
+        <v>500</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>500</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5">
+        <v>500</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>500</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
+        <v>500</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
+        <v>500</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
+        <v>500</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1</v>
+      </c>
+      <c r="S20" s="5">
+        <v>500</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1</v>
+      </c>
+      <c r="S21" s="5">
+        <v>500</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1</v>
+      </c>
+      <c r="S22" s="5">
+        <v>500</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" s="5">
+        <v>1</v>
+      </c>
+      <c r="S23" s="5">
+        <v>500</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24" s="5">
+        <v>1</v>
+      </c>
+      <c r="S24" s="5">
+        <v>500</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="S25" s="5">
+        <v>500</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" s="5">
+        <v>1</v>
+      </c>
+      <c r="S26" s="5">
+        <v>500</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="S27" s="5">
+        <v>500</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="5">
+        <v>1</v>
+      </c>
+      <c r="S28" s="5">
+        <v>500</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="5">
+        <v>1</v>
+      </c>
+      <c r="S29" s="5">
+        <v>500</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="5">
+        <v>1</v>
+      </c>
+      <c r="S30" s="5">
+        <v>500</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1</v>
+      </c>
+      <c r="S31" s="5">
+        <v>500</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1</v>
+      </c>
+      <c r="S32" s="5">
+        <v>500</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="5">
+        <v>1</v>
+      </c>
+      <c r="S33" s="5">
+        <v>500</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" s="5">
+        <v>1</v>
+      </c>
+      <c r="S34" s="5">
+        <v>500</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="5">
+        <v>1</v>
+      </c>
+      <c r="S35" s="5">
+        <v>500</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1</v>
+      </c>
+      <c r="S36" s="5">
+        <v>500</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1</v>
+      </c>
+      <c r="S37" s="5">
+        <v>500</v>
+      </c>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R38" s="5">
+        <v>1</v>
+      </c>
+      <c r="S38" s="5">
+        <v>500</v>
+      </c>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R39" s="5">
+        <v>1</v>
+      </c>
+      <c r="S39" s="5">
+        <v>500</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40" s="5">
+        <v>1</v>
+      </c>
+      <c r="S40" s="5">
+        <v>500</v>
+      </c>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+    </row>
+    <row r="41" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R41" s="5">
+        <v>1</v>
+      </c>
+      <c r="S41" s="5">
+        <v>500</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="5">
+        <v>1</v>
+      </c>
+      <c r="S42" s="5">
+        <v>500</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43" s="5">
+        <v>1</v>
+      </c>
+      <c r="S43" s="5">
+        <v>500</v>
+      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+    </row>
+    <row r="44" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44" s="5">
+        <v>1</v>
+      </c>
+      <c r="S44" s="5">
+        <v>500</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+    </row>
+    <row r="45" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R45" s="5">
+        <v>1</v>
+      </c>
+      <c r="S45" s="5">
+        <v>500</v>
+      </c>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+    </row>
+    <row r="46" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R46" s="5">
+        <v>1</v>
+      </c>
+      <c r="S46" s="5">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="8"/>
+      <c r="M47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+    </row>
+    <row r="48" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="8"/>
+      <c r="M48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="8"/>
+      <c r="M49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+    </row>
+    <row r="50" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R50" s="5">
+        <v>1</v>
+      </c>
+      <c r="S50" s="5">
+        <v>500</v>
+      </c>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R51" s="5">
+        <v>1</v>
+      </c>
+      <c r="S51" s="5">
+        <v>500</v>
+      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R52" s="5">
+        <v>1</v>
+      </c>
+      <c r="S52" s="5">
+        <v>500</v>
+      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1</v>
+      </c>
+      <c r="S53" s="5">
+        <v>500</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" s="5">
+        <v>1</v>
+      </c>
+      <c r="S54" s="5">
+        <v>500</v>
+      </c>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="8"/>
+      <c r="M55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" s="5">
+        <v>1</v>
+      </c>
+      <c r="S55" s="5">
+        <v>500</v>
+      </c>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+    </row>
+    <row r="56" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R56" s="5">
+        <v>1</v>
+      </c>
+      <c r="S56" s="5">
+        <v>500</v>
+      </c>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+    </row>
+    <row r="57" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R57" s="5">
+        <v>1</v>
+      </c>
+      <c r="S57" s="5">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R58" s="5">
+        <v>1</v>
+      </c>
+      <c r="S58" s="5">
+        <v>500</v>
+      </c>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59" s="5">
+        <v>1</v>
+      </c>
+      <c r="S59" s="5">
+        <v>500</v>
+      </c>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R60" s="5">
+        <v>1</v>
+      </c>
+      <c r="S60" s="5">
+        <v>500</v>
+      </c>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R61" s="5">
+        <v>1</v>
+      </c>
+      <c r="S61" s="5">
+        <v>500</v>
+      </c>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R62" s="5">
+        <v>1</v>
+      </c>
+      <c r="S62" s="5">
+        <v>500</v>
+      </c>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+    </row>
+    <row r="63" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R63" s="5">
+        <v>1</v>
+      </c>
+      <c r="S63" s="5">
+        <v>500</v>
+      </c>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+    </row>
+    <row r="64" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R64" s="5">
+        <v>1</v>
+      </c>
+      <c r="S64" s="5">
+        <v>500</v>
+      </c>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+    </row>
+    <row r="65" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R65" s="5">
+        <v>1</v>
+      </c>
+      <c r="S65" s="5">
+        <v>500</v>
+      </c>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+    </row>
+    <row r="66" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R66" s="5">
+        <v>1</v>
+      </c>
+      <c r="S66" s="5">
+        <v>500</v>
+      </c>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+    </row>
+    <row r="67" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R67" s="5">
+        <v>1</v>
+      </c>
+      <c r="S67" s="5">
+        <v>500</v>
+      </c>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+    </row>
+    <row r="68" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R68" s="5">
+        <v>1</v>
+      </c>
+      <c r="S68" s="5">
+        <v>500</v>
+      </c>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+    </row>
+    <row r="69" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R69" s="5">
+        <v>1</v>
+      </c>
+      <c r="S69" s="5">
+        <v>500</v>
+      </c>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+    </row>
+    <row r="70" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R70" s="5">
+        <v>1</v>
+      </c>
+      <c r="S70" s="5">
+        <v>500</v>
+      </c>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+    </row>
+    <row r="71" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R71" s="5">
+        <v>1</v>
+      </c>
+      <c r="S71" s="5">
+        <v>500</v>
+      </c>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+    </row>
+    <row r="72" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R72" s="5">
+        <v>1</v>
+      </c>
+      <c r="S72" s="5">
+        <v>500</v>
+      </c>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+    </row>
+    <row r="73" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73" s="5">
+        <v>1</v>
+      </c>
+      <c r="S73" s="5">
+        <v>500</v>
+      </c>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+    </row>
+    <row r="74" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R74" s="5">
+        <v>1</v>
+      </c>
+      <c r="S74" s="5">
+        <v>500</v>
+      </c>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+    </row>
+    <row r="75" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R75" s="5">
+        <v>1</v>
+      </c>
+      <c r="S75" s="5">
+        <v>500</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="8"/>
+      <c r="M76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+    </row>
+    <row r="77" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="8"/>
+      <c r="M77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+    </row>
+    <row r="78" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="8"/>
+      <c r="M78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+    </row>
+    <row r="79" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R79" s="5">
+        <v>1</v>
+      </c>
+      <c r="S79" s="5">
+        <v>500</v>
+      </c>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
+        <v>14</v>
+      </c>
+      <c r="X79" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y79" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{7517E81A-1CA8-4D22-A5AC-CC87FC129B9F}">
+  <dataValidations count="4">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F80:F1048576" xr:uid="{7517E81A-1CA8-4D22-A5AC-CC87FC129B9F}">
       <formula1>A1&lt;&gt;"desplegable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E5 F2" xr:uid="{C8E8CE51-C7C8-46F6-BE16-FC6AE4C0FFA7}">
-      <formula1>$V$2:$V$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47:C50 C76:C78" xr:uid="{BB2AD739-C94C-4778-8325-627DC73F2E87}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:O2 L51:L54 D51:K55 M51:O55 D58:O58 D79:O79" xr:uid="{7762C5E0-0F5B-4B5D-B1EB-0DA27EC4AED9}">
+      <formula1>$W$2:$W$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C51:C55 C58 C79" xr:uid="{942B7F3F-D92E-4FEE-9F95-36B0CABAFA65}">
+      <formula1>$V$2:$V$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4A995BE-6194-446A-8260-DAE4E72AD42D}">
           <x14:formula1>
             <xm:f>Plantilla!$V$2:$V$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5</xm:sqref>
+          <xm:sqref>C3:C46 C56:C57 C59:C75</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{037664A1-0819-484C-A079-1A3DAEEBCFEF}">
+          <x14:formula1>
+            <xm:f>Plantilla!$W$2:$W$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:G46 H3:K50 G47:G50 F50 L3:N46 D3:E50 M47:N50 L50 O3:O50 D56:O57 D59:O75 G76:K78 D76:E78 M76:O78</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1289,27 +5798,27 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1000228140</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1000228140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1000228140</v>
       </c>
@@ -1322,18 +5831,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B16FC97-C1EE-4B43-90DA-2CB5F5B121B3}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -1343,8 +5852,17 @@
       <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1354,8 +5872,17 @@
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1365,8 +5892,17 @@
       <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1376,8 +5912,17 @@
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1387,8 +5932,17 @@
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +5952,17 @@
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1409,8 +5972,17 @@
       <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1420,8 +5992,17 @@
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1430,6 +6011,155 @@
       </c>
       <c r="C9" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1441,40 +6171,42 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51624015-0912-4B01-898F-133A3425A209}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="37.88671875" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.5546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.88671875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="30.44140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="24" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="139.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="144" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1527,10 +6259,10 @@
         <v>17</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>40</v>
@@ -1538,9 +6270,9 @@
       <c r="U1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="19"/>
-    </row>
-    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1563,7 +6295,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>15</v>
@@ -1606,8 +6338,14 @@
       <c r="W2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="X2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1665,8 +6403,14 @@
       <c r="W3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="X3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +6465,14 @@
       <c r="V4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="X4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +6536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1846,9 +6596,8 @@
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="20"/>
-    </row>
-    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1908,9 +6657,8 @@
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="20"/>
-    </row>
-    <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1970,9 +6718,8 @@
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="20"/>
-    </row>
-    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -2030,9 +6777,8 @@
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="20"/>
-    </row>
-    <row r="10" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -2084,9 +6830,8 @@
       <c r="S10" s="8"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="20"/>
-    </row>
-    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2138,9 +6883,8 @@
       <c r="S11" s="8"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="20"/>
-    </row>
-    <row r="12" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -2200,9 +6944,8 @@
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="20"/>
-    </row>
-    <row r="13" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -2260,9 +7003,8 @@
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="20"/>
-    </row>
-    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -2320,9 +7062,8 @@
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="20"/>
-    </row>
-    <row r="15" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2386,9 +7127,9 @@
       <c r="U15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="21"/>
-    </row>
-    <row r="26" spans="14:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="V15" s="15"/>
+    </row>
+    <row r="26" spans="14:15" ht="24" x14ac:dyDescent="0.3">
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
     </row>
@@ -2397,7 +7138,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C15" xr:uid="{7E272F89-05C1-43BF-84F2-161278BAC09F}">
       <formula1>$V$2:$V$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E15 F2:O2 F5:F9 F12:F15 G3:K15 L15:O15 L12:O12 L5:L8 M3:O11 M13:O14" xr:uid="{2BBC1318-BAE6-495E-8E57-E4B19BAE0CBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F15 F5:F9 K13:K14 L5:L8 D2:D15 M3:O15 G3:J15 K3:K11 K15:L15 K12:L12 E2:O2 E3:E15" xr:uid="{2BBC1318-BAE6-495E-8E57-E4B19BAE0CBF}">
       <formula1>$W$2:$W$3</formula1>
     </dataValidation>
   </dataValidations>
